--- a/Feautures List.xlsx
+++ b/Feautures List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeAdvance\Ex Baemin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45381FB7-AE10-4AFF-8259-0C638743A4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBC3918-E314-4A5F-86FB-53A85B58103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{07226C23-47B7-454E-B6C9-67FD8B73B5CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -169,6 +169,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -176,15 +185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +523,7 @@
   <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,12 +535,12 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
         <v>2</v>
       </c>
@@ -552,12 +552,12 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
@@ -569,12 +569,12 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
@@ -586,29 +586,27 @@
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
@@ -620,12 +618,12 @@
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,12 +633,12 @@
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
@@ -650,12 +648,12 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
@@ -665,12 +663,12 @@
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
@@ -678,12 +676,12 @@
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>

--- a/Feautures List.xlsx
+++ b/Feautures List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NodeAdvance\Ex Baemin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBC3918-E314-4A5F-86FB-53A85B58103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EBD85E-7383-4F87-A7AD-B8CFCE86E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{07226C23-47B7-454E-B6C9-67FD8B73B5CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
@@ -523,7 +523,7 @@
   <dimension ref="B3:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,9 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -682,7 +684,9 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
   </sheetData>
